--- a/benders decomposition/Investment.xlsx
+++ b/benders decomposition/Investment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D141B9A4-3BC3-4D3D-AD24-FFFC2792081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD1B933-AE32-4B43-8FFD-2B9FB142BB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-6405" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>Max_Capacity</t>
   </si>
   <si>
-    <t>opex</t>
+    <t>Dollar/kW</t>
   </si>
 </sst>
 </file>
@@ -378,18 +378,19 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -403,7 +404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -418,7 +419,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -433,7 +434,7 @@
         <v>828.88</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -448,7 +449,7 @@
         <v>2974.4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
     </row>
   </sheetData>
